--- a/app/IndependenceAssassins.xlsx
+++ b/app/IndependenceAssassins.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overview" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Teams" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Players" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Target Assignments" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Teams" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Players" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Target Assignments" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -149,24 +149,24 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -197,7 +197,7 @@
     <xf numFmtId="7" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -576,11 +576,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="18.86214285714286" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="18.86214285714286" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="10.14785714285714" bestFit="1" customWidth="1" style="18" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="10.86214285714286" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.86214285714286" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -591,27 +591,27 @@
       </c>
       <c r="B1" s="8" t="n"/>
       <c r="C1" s="9" t="n"/>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Deaths Day By Day</t>
         </is>
       </c>
-      <c r="E1" s="2" t="n"/>
+      <c r="E1" s="6" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="10" t="n"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
       <c r="C2" s="11" t="n"/>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>New Deaths</t>
         </is>
@@ -619,7 +619,7 @@
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="10" t="n"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Alive</t>
         </is>
@@ -627,12 +627,12 @@
       <c r="C3" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="10" t="n"/>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Dead Today</t>
         </is>
@@ -640,30 +640,30 @@
       <c r="C4" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="10" t="n"/>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Total Death</t>
         </is>
       </c>
       <c r="C5" s="12" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="10" t="n"/>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Cash Prize Per Winner</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="14" t="n"/>
@@ -675,26 +675,26 @@
       <c r="C7" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Total Deaths:</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,7 +707,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,128 +715,228 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="18.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="14.86214285714286" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="14.86214285714286" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="14.86214285714286" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="14.86214285714286" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
-    <col width="19.71928571428571" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="2" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="18.29071428571428" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.86214285714286" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="14.86214285714286" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="14.86214285714286" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="14.86214285714286" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
+    <col width="19.71928571428571" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
+    <col width="15.29071428571429" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Team  ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Team Name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Member 1 ID</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Member 1 Status</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Member 2 ID</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Member 2 Status</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Member 3 ID</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Member 3 Status</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Member 4 ID</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Member 4 Status</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Team Status</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Team Percentage Alive</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Currently Hunting</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="6" t="n"/>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="1" t="n">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>1352</v>
+      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="1" t="n">
         <v>4533</v>
       </c>
-      <c r="B2" t="inlineStr">
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>1532</v>
+      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="1" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>3456</v>
+      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="6" t="n"/>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="1" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="1" t="n">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>4533</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Breaking Bad</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C7" s="1" t="n">
         <v>904</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E7" s="1" t="n">
         <v>780</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G7" s="1" t="n">
         <v>689</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I7" s="1" t="n">
         <v>816</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
+      </c>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="1" t="n">
+        <v>3456</v>
       </c>
     </row>
   </sheetData>
@@ -858,215 +958,215 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="9.719285714285713" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.719285714285713" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="6.005" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="29.71928571428571" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="13.29071428571429" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9.576428571428572" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="22.005" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="9.719285714285713" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="9.719285714285713" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="6.005" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="29.71928571428571" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.29071428571429" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="9.576428571428572" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="22.005" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Player ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Number of Confirmed Eliminations</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Phone Number</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Current Target</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>URL Extension</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="1" t="n">
         <v>904</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Nick</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Romsdal</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>6152909710</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>Iams2004!</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>9037001e34693700a6d2f85f54d5b193cf82ccff0462b5e0971b5f72c4ebf5d5</t>
         </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="1" t="n">
         <v>780</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Giblin</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>1234567890</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>test123</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>091d9f2dd0d34fd98b26e1ee594d1af16eee319534828ade1d92d6fe976146f1</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="1" t="n">
         <v>689</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Josh</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>1234365820</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>test163</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>c97fa389b085b61c563e20b36bbaa39bfd62444df37ea48773f7c1fffdbf58b7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="1" t="n">
         <v>816</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Hunter</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>1234567523</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>test923</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>0ed0df1995ca4fe160d1a61815dccf2ea61f5323031185863ff105508df385d8</t>
         </is>
@@ -1083,7 +1183,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,21 +1191,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="17.86214285714286" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hunter Row Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Hunter ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Target ID</t>
         </is>
       </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1352</v>
+      </c>
+      <c r="C3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>3456</v>
+      </c>
+      <c r="C5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>4533</v>
+      </c>
+      <c r="C7" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
